--- a/Planilhas/Raca.xlsx
+++ b/Planilhas/Raca.xlsx
@@ -16,6 +16,7 @@
 <office:document-content xmlns:presentation="urn:oasis:names:tc:opendocument:xmlns:presentation:1.0" xmlns:css3t="http://www.w3.org/TR/css3-text/" xmlns:grddl="http://www.w3.org/2003/g/data-view#" xmlns:xhtml="http://www.w3.org/1999/xhtml" xmlns:formx="urn:openoffice:names:experimental:ooxml-odf-interop:xmlns:form:1.0" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:rpt="http://openoffice.org/2005/report" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:chart="urn:oasis:names:tc:opendocument:xmlns:chart:1.0" xmlns:svg="urn:oasis:names:tc:opendocument:xmlns:svg-compatible:1.0" xmlns:draw="urn:oasis:names:tc:opendocument:xmlns:drawing:1.0" xmlns:text="urn:oasis:names:tc:opendocument:xmlns:text:1.0" xmlns:oooc="http://openoffice.org/2004/calc" xmlns:style="urn:oasis:names:tc:opendocument:xmlns:style:1.0" xmlns:ooow="http://openoffice.org/2004/writer" xmlns:meta="urn:oasis:names:tc:opendocument:xmlns:meta:1.0" xmlns:xlink="http://www.w3.org/1999/xlink" xmlns:fo="urn:oasis:names:tc:opendocument:xmlns:xsl-fo-compatible:1.0" xmlns:ooo="http://openoffice.org/2004/office" xmlns:office="urn:oasis:names:tc:opendocument:xmlns:office:1.0" xmlns:dr3d="urn:oasis:names:tc:opendocument:xmlns:dr3d:1.0" xmlns:table="urn:oasis:names:tc:opendocument:xmlns:table:1.0" xmlns:number="urn:oasis:names:tc:opendocument:xmlns:datastyle:1.0" xmlns:of="urn:oasis:names:tc:opendocument:xmlns:of:1.2" xmlns:calcext="urn:org:documentfoundation:names:experimental:calc:xmlns:calcext:1.0" xmlns:tableooo="http://openoffice.org/2009/table" xmlns:drawooo="http://openoffice.org/2010/draw" xmlns:loext="urn:org:documentfoundation:names:experimental:office:xmlns:loext:1.0" xmlns:dom="http://www.w3.org/2001/xml-events" xmlns:field="urn:openoffice:names:experimental:ooo-ms-interop:xmlns:field:1.0" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:math="http://www.w3.org/1998/Math/MathML" xmlns:form="urn:oasis:names:tc:opendocument:xmlns:form:1.0" xmlns:script="urn:oasis:names:tc:opendocument:xmlns:script:1.0" xmlns:xforms="http://www.w3.org/2002/xforms" office:version="1.3">
   <office:scripts/>
   <office:font-face-decls>
+    <style:font-face style:name="Calibri" svg:font-family="Calibri" style:font-family-generic="swiss"/>
     <style:font-face style:name="Liberation Sans" svg:font-family="'Liberation Sans'" style:font-family-generic="swiss" style:font-pitch="variable"/>
     <style:font-face style:name="Lohit Devanagari" svg:font-family="'Lohit Devanagari'" style:font-family-generic="system" style:font-pitch="variable"/>
     <style:font-face style:name="Noto Sans CJK SC" svg:font-family="'Noto Sans CJK SC'" style:font-family-generic="system" style:font-pitch="variable"/>
@@ -25,10 +26,21 @@
       <style:table-column-properties fo:break-before="auto" style:column-width="2.258cm"/>
     </style:style>
     <style:style style:name="ro1" style:family="table-row">
+      <style:table-row-properties style:row-height="0.487cm" fo:break-before="auto" style:use-optimal-row-height="true"/>
+    </style:style>
+    <style:style style:name="ro2" style:family="table-row">
       <style:table-row-properties style:row-height="0.452cm" fo:break-before="auto" style:use-optimal-row-height="true"/>
     </style:style>
     <style:style style:name="ta1" style:family="table" style:master-page-name="Default">
       <style:table-properties table:display="true" style:writing-mode="lr-tb"/>
+    </style:style>
+    <number:number-style style:name="N3">
+      <number:number number:decimal-places="0" number:min-decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
+    </number:number-style>
+    <style:style style:name="ce2" style:family="table-cell" style:parent-style-name="Default" style:data-style-name="N3">
+      <style:table-cell-properties style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="fix" style:repeat-content="false" fo:wrap-option="no-wrap" fo:border="0.74pt solid #000000" style:direction="ltr" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="middle" loext:vertical-justify="auto"/>
+      <style:paragraph-properties fo:text-align="center" css3t:text-justify="auto" fo:margin-left="0cm" style:writing-mode="page"/>
+      <style:text-properties fo:color="#000000" style:text-outline="false" style:text-line-through-style="none" style:text-line-through-type="none" style:font-name="Calibri" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Calibri" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
     </style:style>
     <style:style style:name="ce1" style:family="table-cell" style:parent-style-name="Default">
       <style:table-cell-properties style:diagonal-bl-tr="none" style:diagonal-tl-br="none" fo:border="0.74pt solid #000000" style:rotation-align="none"/>
@@ -39,10 +51,14 @@
       <table:calculation-settings table:automatic-find-labels="false" table:use-regular-expressions="false" table:use-wildcards="true"/>
       <table:table table:name="Sheet1" table:style-name="ta1">
         <table:table-column table:style-name="co1" table:default-cell-style-name="Default"/>
+        <table:table-column table:style-name="co1" table:default-cell-style-name="ce2"/>
         <table:table-column table:style-name="co1" table:number-columns-repeated="4" table:default-cell-style-name="ce1"/>
         <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>Aguanil</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="4357" calcext:value-type="float">
+            <text:p>4.357</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="float" office:value="12" calcext:value-type="float">
             <text:p>12</text:p>
@@ -61,6 +77,9 @@
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>Araujos</text:p>
           </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="9199" calcext:value-type="float">
+            <text:p>9.199</text:p>
+          </table:table-cell>
           <table:table-cell office:value-type="float" office:value="5" calcext:value-type="float">
             <text:p>5</text:p>
           </table:table-cell>
@@ -78,6 +97,9 @@
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>Arcos</text:p>
           </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="41417" calcext:value-type="float">
+            <text:p>41.417</text:p>
+          </table:table-cell>
           <table:table-cell office:value-type="float" office:value="131" calcext:value-type="float">
             <text:p>131</text:p>
           </table:table-cell>
@@ -95,6 +117,9 @@
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>Bambui</text:p>
           </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="23546" calcext:value-type="float">
+            <text:p>23.546</text:p>
+          </table:table-cell>
           <table:table-cell office:value-type="float" office:value="314" calcext:value-type="float">
             <text:p>314</text:p>
           </table:table-cell>
@@ -112,6 +137,9 @@
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>Bom Despacho</text:p>
           </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="51737" calcext:value-type="float">
+            <text:p>51.737</text:p>
+          </table:table-cell>
           <table:table-cell office:value-type="float" office:value="152" calcext:value-type="float">
             <text:p>152</text:p>
           </table:table-cell>
@@ -129,6 +157,9 @@
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>Camacho</text:p>
           </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="2838" calcext:value-type="float">
+            <text:p>2.838</text:p>
+          </table:table-cell>
           <table:table-cell office:value-type="float" office:value="6" calcext:value-type="float">
             <text:p>6</text:p>
           </table:table-cell>
@@ -146,6 +177,9 @@
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>Campo Belo</text:p>
           </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="52277" calcext:value-type="float">
+            <text:p>52.277</text:p>
+          </table:table-cell>
           <table:table-cell office:value-type="float" office:value="127" calcext:value-type="float">
             <text:p>127</text:p>
           </table:table-cell>
@@ -163,6 +197,9 @@
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>Cana Verde</text:p>
           </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="5272" calcext:value-type="float">
+            <text:p>5.272</text:p>
+          </table:table-cell>
           <table:table-cell office:value-type="float" office:value="10" calcext:value-type="float">
             <text:p>10</text:p>
           </table:table-cell>
@@ -180,6 +217,9 @@
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>Candeias</text:p>
           </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="14001" calcext:value-type="float">
+            <text:p>14.001</text:p>
+          </table:table-cell>
           <table:table-cell office:value-type="float" office:value="97" calcext:value-type="float">
             <text:p>97</text:p>
           </table:table-cell>
@@ -197,6 +237,9 @@
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>Carmo da Mata</text:p>
           </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="11019" calcext:value-type="float">
+            <text:p>11.019</text:p>
+          </table:table-cell>
           <table:table-cell office:value-type="float" office:value="42" calcext:value-type="float">
             <text:p>42</text:p>
           </table:table-cell>
@@ -214,6 +257,9 @@
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>Carmo do Cajuru</text:p>
           </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="23479" calcext:value-type="float">
+            <text:p>23.479</text:p>
+          </table:table-cell>
           <table:table-cell office:value-type="float" office:value="12" calcext:value-type="float">
             <text:p>12</text:p>
           </table:table-cell>
@@ -231,6 +277,9 @@
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>Carmopolis de Minas</text:p>
           </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="17878" calcext:value-type="float">
+            <text:p>17.878</text:p>
+          </table:table-cell>
           <table:table-cell office:value-type="float" office:value="117" calcext:value-type="float">
             <text:p>117</text:p>
           </table:table-cell>
@@ -248,6 +297,9 @@
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>Claudio</text:p>
           </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="30159" calcext:value-type="float">
+            <text:p>30.159</text:p>
+          </table:table-cell>
           <table:table-cell office:value-type="float" office:value="35" calcext:value-type="float">
             <text:p>35</text:p>
           </table:table-cell>
@@ -265,6 +317,9 @@
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>Conceicao do Para</text:p>
           </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="5415" calcext:value-type="float">
+            <text:p>5.415</text:p>
+          </table:table-cell>
           <table:table-cell office:value-type="float" office:value="7" calcext:value-type="float">
             <text:p>7</text:p>
           </table:table-cell>
@@ -282,6 +337,9 @@
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>Corrego Danta</text:p>
           </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="2960" calcext:value-type="float">
+            <text:p>2.960</text:p>
+          </table:table-cell>
           <table:table-cell office:value-type="float" office:value="13" calcext:value-type="float">
             <text:p>13</text:p>
           </table:table-cell>
@@ -299,6 +357,9 @@
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>Corrego Fundo</text:p>
           </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="6133" calcext:value-type="float">
+            <text:p>6.133</text:p>
+          </table:table-cell>
           <table:table-cell office:value-type="float" office:value="22" calcext:value-type="float">
             <text:p>22</text:p>
           </table:table-cell>
@@ -316,6 +377,9 @@
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>Cristais</text:p>
           </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="12197" calcext:value-type="float">
+            <text:p>12.197</text:p>
+          </table:table-cell>
           <table:table-cell office:value-type="float" office:value="51" calcext:value-type="float">
             <text:p>51</text:p>
           </table:table-cell>
@@ -333,6 +397,9 @@
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>Divinopolis</text:p>
           </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="231091" calcext:value-type="float">
+            <text:p>231.091</text:p>
+          </table:table-cell>
           <table:table-cell office:value-type="float" office:value="121" calcext:value-type="float">
             <text:p>121</text:p>
           </table:table-cell>
@@ -350,6 +417,9 @@
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>Dores do Indaia</text:p>
           </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="12630" calcext:value-type="float">
+            <text:p>12.630</text:p>
+          </table:table-cell>
           <table:table-cell office:value-type="float" office:value="111" calcext:value-type="float">
             <text:p>111</text:p>
           </table:table-cell>
@@ -367,6 +437,9 @@
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>Estrela do Indaia</text:p>
           </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="2772" calcext:value-type="float">
+            <text:p>2.772</text:p>
+          </table:table-cell>
           <table:table-cell office:value-type="float" office:value="11" calcext:value-type="float">
             <text:p>11</text:p>
           </table:table-cell>
@@ -381,6 +454,9 @@
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>Formiga</text:p>
           </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="68248" calcext:value-type="float">
+            <text:p>68.248</text:p>
+          </table:table-cell>
           <table:table-cell office:value-type="float" office:value="194" calcext:value-type="float">
             <text:p>194</text:p>
           </table:table-cell>
@@ -398,6 +474,9 @@
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>Igaratinga</text:p>
           </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="10830" calcext:value-type="float">
+            <text:p>10.830</text:p>
+          </table:table-cell>
           <table:table-cell office:value-type="float" office:value="19" calcext:value-type="float">
             <text:p>19</text:p>
           </table:table-cell>
@@ -415,6 +494,9 @@
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>Iguatama</text:p>
           </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="6826" calcext:value-type="float">
+            <text:p>6.826</text:p>
+          </table:table-cell>
           <table:table-cell office:value-type="float" office:value="19" calcext:value-type="float">
             <text:p>19</text:p>
           </table:table-cell>
@@ -432,6 +514,9 @@
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>Itaguara</text:p>
           </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="13846" calcext:value-type="float">
+            <text:p>13.846</text:p>
+          </table:table-cell>
           <table:table-cell office:value-type="float" office:value="126" calcext:value-type="float">
             <text:p>126</text:p>
           </table:table-cell>
@@ -449,6 +534,9 @@
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>Itapecerica</text:p>
           </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="20984" calcext:value-type="float">
+            <text:p>20.984</text:p>
+          </table:table-cell>
           <table:table-cell office:value-type="float" office:value="52" calcext:value-type="float">
             <text:p>52</text:p>
           </table:table-cell>
@@ -466,6 +554,9 @@
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>Itatiaiucu</text:p>
           </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="12966" calcext:value-type="float">
+            <text:p>12.966</text:p>
+          </table:table-cell>
           <table:table-cell office:value-type="float" office:value="11" calcext:value-type="float">
             <text:p>11</text:p>
           </table:table-cell>
@@ -483,6 +574,9 @@
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>Itauna</text:p>
           </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="97669" calcext:value-type="float">
+            <text:p>97.669</text:p>
+          </table:table-cell>
           <table:table-cell office:value-type="float" office:value="146" calcext:value-type="float">
             <text:p>146</text:p>
           </table:table-cell>
@@ -500,6 +594,9 @@
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>Japaraiba</text:p>
           </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="4508" calcext:value-type="float">
+            <text:p>4.508</text:p>
+          </table:table-cell>
           <table:table-cell office:value-type="float" office:value="8" calcext:value-type="float">
             <text:p>8</text:p>
           </table:table-cell>
@@ -517,6 +614,9 @@
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>Lagoa da Prata</text:p>
           </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="51412" calcext:value-type="float">
+            <text:p>51.412</text:p>
+          </table:table-cell>
           <table:table-cell office:value-type="float" office:value="24" calcext:value-type="float">
             <text:p>24</text:p>
           </table:table-cell>
@@ -534,6 +634,9 @@
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>Leandro Ferreira</text:p>
           </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="3199" calcext:value-type="float">
+            <text:p>3.199</text:p>
+          </table:table-cell>
           <table:table-cell office:value-type="float" office:value="5" calcext:value-type="float">
             <text:p>5</text:p>
           </table:table-cell>
@@ -551,6 +654,9 @@
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>Luz</text:p>
           </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="17875" calcext:value-type="float">
+            <text:p>17.875</text:p>
+          </table:table-cell>
           <table:table-cell office:value-type="float" office:value="217" calcext:value-type="float">
             <text:p>217</text:p>
           </table:table-cell>
@@ -568,6 +674,9 @@
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>Martinho Campos</text:p>
           </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="14003" calcext:value-type="float">
+            <text:p>14.003</text:p>
+          </table:table-cell>
           <table:table-cell office:value-type="float" office:value="29" calcext:value-type="float">
             <text:p>29</text:p>
           </table:table-cell>
@@ -585,6 +694,9 @@
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>Medeiros</text:p>
           </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="3900" calcext:value-type="float">
+            <text:p>3.900</text:p>
+          </table:table-cell>
           <table:table-cell office:value-type="float" office:value="26" calcext:value-type="float">
             <text:p>26</text:p>
           </table:table-cell>
@@ -602,6 +714,9 @@
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>Moema</text:p>
           </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="7548" calcext:value-type="float">
+            <text:p>7.548</text:p>
+          </table:table-cell>
           <table:table-cell office:value-type="float" office:value="84" calcext:value-type="float">
             <text:p>84</text:p>
           </table:table-cell>
@@ -619,6 +734,9 @@
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>Nova Serrana</text:p>
           </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="105552" calcext:value-type="float">
+            <text:p>105.552</text:p>
+          </table:table-cell>
           <table:table-cell office:value-type="float" office:value="55" calcext:value-type="float">
             <text:p>55</text:p>
           </table:table-cell>
@@ -636,6 +754,9 @@
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>Oliveira</text:p>
           </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="39262" calcext:value-type="float">
+            <text:p>39.262</text:p>
+          </table:table-cell>
           <table:table-cell office:value-type="float" office:value="34" calcext:value-type="float">
             <text:p>34</text:p>
           </table:table-cell>
@@ -653,6 +774,9 @@
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>Onca de Pitangui</text:p>
           </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="2969" calcext:value-type="float">
+            <text:p>2.969</text:p>
+          </table:table-cell>
           <table:table-cell office:value-type="float" office:value="4" calcext:value-type="float">
             <text:p>4</text:p>
           </table:table-cell>
@@ -670,6 +794,9 @@
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>Pains</text:p>
           </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="8142" calcext:value-type="float">
+            <text:p>8.142</text:p>
+          </table:table-cell>
           <table:table-cell office:value-type="float" office:value="21" calcext:value-type="float">
             <text:p>21</text:p>
           </table:table-cell>
@@ -687,6 +814,9 @@
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>Para de Minas</text:p>
           </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="97139" calcext:value-type="float">
+            <text:p>97.139</text:p>
+          </table:table-cell>
           <table:table-cell office:value-type="float" office:value="135" calcext:value-type="float">
             <text:p>135</text:p>
           </table:table-cell>
@@ -704,6 +834,9 @@
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>Passa Tempo</text:p>
           </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="8473" calcext:value-type="float">
+            <text:p>8.473</text:p>
+          </table:table-cell>
           <table:table-cell office:value-type="float" office:value="45" calcext:value-type="float">
             <text:p>45</text:p>
           </table:table-cell>
@@ -721,6 +854,9 @@
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>Pedra do Indaia</text:p>
           </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="4112" calcext:value-type="float">
+            <text:p>4.112</text:p>
+          </table:table-cell>
           <table:table-cell office:value-type="float" office:value="7" calcext:value-type="float">
             <text:p>7</text:p>
           </table:table-cell>
@@ -738,6 +874,9 @@
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>Perdigao</text:p>
           </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="12268" calcext:value-type="float">
+            <text:p>12.268</text:p>
+          </table:table-cell>
           <table:table-cell office:value-type="float" office:value="7" calcext:value-type="float">
             <text:p>7</text:p>
           </table:table-cell>
@@ -755,6 +894,9 @@
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>Piracema</text:p>
           </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="6700" calcext:value-type="float">
+            <text:p>6.700</text:p>
+          </table:table-cell>
           <table:table-cell office:value-type="float" office:value="22" calcext:value-type="float">
             <text:p>22</text:p>
           </table:table-cell>
@@ -772,6 +914,9 @@
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>Pitangui</text:p>
           </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="26685" calcext:value-type="float">
+            <text:p>26.685</text:p>
+          </table:table-cell>
           <table:table-cell office:value-type="float" office:value="49" calcext:value-type="float">
             <text:p>49</text:p>
           </table:table-cell>
@@ -789,6 +934,9 @@
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>Santana do Jacare</text:p>
           </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="4214" calcext:value-type="float">
+            <text:p>4.214</text:p>
+          </table:table-cell>
           <table:table-cell office:value-type="float" office:value="14" calcext:value-type="float">
             <text:p>14</text:p>
           </table:table-cell>
@@ -806,6 +954,9 @@
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>Santo Antonio do Amparo</text:p>
           </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="17285" calcext:value-type="float">
+            <text:p>17.285</text:p>
+          </table:table-cell>
           <table:table-cell office:value-type="float" office:value="114" calcext:value-type="float">
             <text:p>114</text:p>
           </table:table-cell>
@@ -823,6 +974,9 @@
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>Santo Antonio do Monte</text:p>
           </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="27295" calcext:value-type="float">
+            <text:p>27.295</text:p>
+          </table:table-cell>
           <table:table-cell office:value-type="float" office:value="111" calcext:value-type="float">
             <text:p>111</text:p>
           </table:table-cell>
@@ -840,6 +994,9 @@
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>Sao Francisco de Paula</text:p>
           </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="6187" calcext:value-type="float">
+            <text:p>6.187</text:p>
+          </table:table-cell>
           <table:table-cell office:value-type="float" office:value="5" calcext:value-type="float">
             <text:p>5</text:p>
           </table:table-cell>
@@ -854,6 +1011,9 @@
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>Sao Goncalo do Para</text:p>
           </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="11770" calcext:value-type="float">
+            <text:p>11.770</text:p>
+          </table:table-cell>
           <table:table-cell office:value-type="float" office:value="13" calcext:value-type="float">
             <text:p>13</text:p>
           </table:table-cell>
@@ -871,6 +1031,9 @@
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>Sao Jose da Varginha</text:p>
           </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="4536" calcext:value-type="float">
+            <text:p>4.536</text:p>
+          </table:table-cell>
           <table:table-cell office:value-type="float" office:value="2" calcext:value-type="float">
             <text:p>2</text:p>
           </table:table-cell>
@@ -888,6 +1051,9 @@
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>Sao Sebastiao do Oeste</text:p>
           </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="8815" calcext:value-type="float">
+            <text:p>8.815</text:p>
+          </table:table-cell>
           <table:table-cell office:value-type="float" office:value="2" calcext:value-type="float">
             <text:p>2</text:p>
           </table:table-cell>
@@ -905,6 +1071,9 @@
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>Serra da Saudade</text:p>
           </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="833" calcext:value-type="float">
+            <text:p>833</text:p>
+          </table:table-cell>
           <table:table-cell office:value-type="float" office:value="6" calcext:value-type="float">
             <text:p>6</text:p>
           </table:table-cell>
@@ -921,6 +1090,9 @@
         <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>Tapirai</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="1690" calcext:value-type="float">
+            <text:p>1.690</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="float" office:value="20" calcext:value-type="float">
             <text:p>20</text:p>
@@ -946,11 +1118,11 @@
 <office:document-meta xmlns:grddl="http://www.w3.org/2003/g/data-view#" xmlns:meta="urn:oasis:names:tc:opendocument:xmlns:meta:1.0" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:xlink="http://www.w3.org/1999/xlink" xmlns:ooo="http://openoffice.org/2004/office" xmlns:office="urn:oasis:names:tc:opendocument:xmlns:office:1.0" office:version="1.3">
   <office:meta>
     <meta:creation-date>2025-01-12T14:58:47.700834136</meta:creation-date>
-    <dc:date>2025-01-12T15:00:40.676779395</dc:date>
-    <meta:editing-duration>PT1M53S</meta:editing-duration>
-    <meta:editing-cycles>1</meta:editing-cycles>
-    <meta:document-statistic meta:table-count="1" meta:cell-count="265" meta:object-count="0"/>
+    <dc:date>2025-01-18T14:05:52.646023322</dc:date>
+    <meta:editing-duration>PT2M18S</meta:editing-duration>
+    <meta:editing-cycles>2</meta:editing-cycles>
     <meta:generator>LibreOffice/7.3.7.2$Linux_X86_64 LibreOffice_project/30$Build-2</meta:generator>
+    <meta:document-statistic meta:table-count="1" meta:cell-count="318" meta:object-count="0"/>
   </office:meta>
 </office:document-meta>
 </file>
@@ -961,15 +1133,15 @@
     <config:config-item-set config:name="ooo:view-settings">
       <config:config-item config:name="VisibleAreaTop" config:type="int">0</config:config-item>
       <config:config-item config:name="VisibleAreaLeft" config:type="int">0</config:config-item>
-      <config:config-item config:name="VisibleAreaWidth" config:type="int">11289</config:config-item>
-      <config:config-item config:name="VisibleAreaHeight" config:type="int">23932</config:config-item>
+      <config:config-item config:name="VisibleAreaWidth" config:type="int">13547</config:config-item>
+      <config:config-item config:name="VisibleAreaHeight" config:type="int">25802</config:config-item>
       <config:config-item-map-indexed config:name="Views">
         <config:config-item-map-entry>
           <config:config-item config:name="ViewId" config:type="string">view1</config:config-item>
           <config:config-item-map-named config:name="Tables">
             <config:config-item-map-entry config:name="Sheet1">
-              <config:config-item config:name="CursorPositionX" config:type="int">6</config:config-item>
-              <config:config-item config:name="CursorPositionY" config:type="int">5</config:config-item>
+              <config:config-item config:name="CursorPositionX" config:type="int">9</config:config-item>
+              <config:config-item config:name="CursorPositionY" config:type="int">4</config:config-item>
               <config:config-item config:name="ActiveSplitRange" config:type="short">2</config:config-item>
               <config:config-item config:name="PositionLeft" config:type="int">0</config:config-item>
               <config:config-item config:name="PositionRight" config:type="int">0</config:config-item>
@@ -1028,9 +1200,9 @@
       <config:config-item config:name="IsSnapToRaster" config:type="boolean">false</config:config-item>
       <config:config-item config:name="LinkUpdateMode" config:type="short">3</config:config-item>
       <config:config-item config:name="LoadReadonly" config:type="boolean">false</config:config-item>
-      <config:config-item config:name="PrinterName" config:type="string"/>
+      <config:config-item config:name="PrinterName" config:type="string">Generic Printer</config:config-item>
       <config:config-item config:name="PrinterPaperFromSetup" config:type="boolean">false</config:config-item>
-      <config:config-item config:name="PrinterSetup" config:type="base64Binary"/>
+      <config:config-item config:name="PrinterSetup" config:type="base64Binary">lAH+/0dlbmVyaWMgUHJpbnRlcgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAU0dFTlBSVAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAWAAMAtQAAAAAAAAAEAAhSAAAEdAAASm9iRGF0YSAxCnByaW50ZXI9R2VuZXJpYyBQcmludGVyCm9yaWVudGF0aW9uPVBvcnRyYWl0CmNvcGllcz0xCmNvbGxhdGU9ZmFsc2UKbWFyZ2luYWRqdXN0bWVudD0wLDAsMCwwCmNvbG9yZGVwdGg9MjQKcHNsZXZlbD0wCnBkZmRldmljZT0xCmNvbG9yZGV2aWNlPTAKUFBEQ29udGV4dERhdGEKUGFnZVNpemU6QTQAABIAQ09NUEFUX0RVUExFWF9NT0RFDwBEdXBsZXhNb2RlOjpPZmY=</config:config-item>
       <config:config-item config:name="RasterIsVisible" config:type="boolean">false</config:config-item>
       <config:config-item config:name="RasterResolutionX" config:type="int">1000</config:config-item>
       <config:config-item config:name="RasterResolutionY" config:type="int">1000</config:config-item>
@@ -1042,6 +1214,7 @@
       <config:config-item config:name="ShowNotes" config:type="boolean">true</config:config-item>
       <config:config-item config:name="ShowPageBreaks" config:type="boolean">true</config:config-item>
       <config:config-item config:name="ShowZeroValues" config:type="boolean">true</config:config-item>
+      <config:config-item config:name="SyntaxStringRef" config:type="short">7</config:config-item>
       <config:config-item config:name="UpdateFromTemplate" config:type="boolean">true</config:config-item>
       <config:config-item-map-named config:name="ScriptConfiguration">
         <config:config-item-map-entry config:name="Sheet1">
@@ -1056,6 +1229,7 @@
 <file path=styles.xml><?xml version="1.0" encoding="utf-8"?>
 <office:document-styles xmlns:presentation="urn:oasis:names:tc:opendocument:xmlns:presentation:1.0" xmlns:css3t="http://www.w3.org/TR/css3-text/" xmlns:rpt="http://openoffice.org/2005/report" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:chart="urn:oasis:names:tc:opendocument:xmlns:chart:1.0" xmlns:svg="urn:oasis:names:tc:opendocument:xmlns:svg-compatible:1.0" xmlns:draw="urn:oasis:names:tc:opendocument:xmlns:drawing:1.0" xmlns:text="urn:oasis:names:tc:opendocument:xmlns:text:1.0" xmlns:oooc="http://openoffice.org/2004/calc" xmlns:style="urn:oasis:names:tc:opendocument:xmlns:style:1.0" xmlns:ooow="http://openoffice.org/2004/writer" xmlns:meta="urn:oasis:names:tc:opendocument:xmlns:meta:1.0" xmlns:xlink="http://www.w3.org/1999/xlink" xmlns:fo="urn:oasis:names:tc:opendocument:xmlns:xsl-fo-compatible:1.0" xmlns:ooo="http://openoffice.org/2004/office" xmlns:office="urn:oasis:names:tc:opendocument:xmlns:office:1.0" xmlns:dr3d="urn:oasis:names:tc:opendocument:xmlns:dr3d:1.0" xmlns:table="urn:oasis:names:tc:opendocument:xmlns:table:1.0" xmlns:number="urn:oasis:names:tc:opendocument:xmlns:datastyle:1.0" xmlns:of="urn:oasis:names:tc:opendocument:xmlns:of:1.2" xmlns:calcext="urn:org:documentfoundation:names:experimental:calc:xmlns:calcext:1.0" xmlns:tableooo="http://openoffice.org/2009/table" xmlns:drawooo="http://openoffice.org/2010/draw" xmlns:grddl="http://www.w3.org/2003/g/data-view#" xmlns:loext="urn:org:documentfoundation:names:experimental:office:xmlns:loext:1.0" xmlns:dom="http://www.w3.org/2001/xml-events" xmlns:field="urn:openoffice:names:experimental:ooo-ms-interop:xmlns:field:1.0" xmlns:math="http://www.w3.org/1998/Math/MathML" xmlns:form="urn:oasis:names:tc:opendocument:xmlns:form:1.0" xmlns:script="urn:oasis:names:tc:opendocument:xmlns:script:1.0" xmlns:xhtml="http://www.w3.org/1999/xhtml" office:version="1.3">
   <office:font-face-decls>
+    <style:font-face style:name="Calibri" svg:font-family="Calibri" style:font-family-generic="swiss"/>
     <style:font-face style:name="Liberation Sans" svg:font-family="'Liberation Sans'" style:font-family-generic="swiss" style:font-pitch="variable"/>
     <style:font-face style:name="Lohit Devanagari" svg:font-family="'Lohit Devanagari'" style:font-family-generic="system" style:font-pitch="variable"/>
     <style:font-face style:name="Noto Sans CJK SC" svg:font-family="'Noto Sans CJK SC'" style:font-family-generic="system" style:font-pitch="variable"/>
@@ -1068,272 +1242,272 @@
     <number:number-style style:name="N0">
       <number:number number:min-integer-digits="1"/>
     </number:number-style>
-    <number:number-style style:name="N129">
+    <number:number-style style:name="N145P0" style:volatile="true">
+      <number:number number:decimal-places="0" number:min-decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
+      <number:text> </number:text>
+    </number:number-style>
+    <number:number-style style:name="N145">
+      <style:text-properties fo:color="#ff0000"/>
+      <number:text>(</number:text>
+      <number:number number:decimal-places="0" number:min-decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
+      <number:text>)</number:text>
+      <style:map style:condition="value()&gt;=0" style:apply-style-name="N145P0"/>
+    </number:number-style>
+    <number:number-style style:name="N144P0" style:volatile="true">
+      <number:number number:decimal-places="0" number:min-decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
+      <number:text> </number:text>
+    </number:number-style>
+    <number:number-style style:name="N144">
+      <number:text>(</number:text>
+      <number:number number:decimal-places="0" number:min-decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
+      <number:text>)</number:text>
+      <style:map style:condition="value()&gt;=0" style:apply-style-name="N144P0"/>
+    </number:number-style>
+    <number:date-style style:name="N142">
+      <number:day/>
+      <number:text>/</number:text>
+      <number:month/>
+      <number:text>/</number:text>
+      <number:year number:style="long"/>
+      <number:text> </number:text>
+      <number:hours number:style="long"/>
+      <number:text>:</number:text>
+      <number:minutes number:style="long"/>
+    </number:date-style>
+    <number:time-style style:name="N141">
+      <number:hours/>
+      <number:text>:</number:text>
+      <number:minutes number:style="long"/>
+      <number:text>:</number:text>
+      <number:seconds number:style="long"/>
+      <number:text> </number:text>
+      <number:am-pm/>
+    </number:time-style>
+    <number:time-style style:name="N140">
+      <number:hours/>
+      <number:text>:</number:text>
+      <number:minutes number:style="long"/>
+      <number:text> </number:text>
+      <number:am-pm/>
+    </number:time-style>
+    <number:number-style style:name="N135P0" style:volatile="true">
+      <number:text>R$ </number:text>
+      <number:number number:decimal-places="2" number:min-decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
+      <number:text> </number:text>
+    </number:number-style>
+    <number:number-style style:name="N135">
+      <style:text-properties fo:color="#ff0000"/>
+      <number:text>(R$ </number:text>
+      <number:number number:decimal-places="2" number:min-decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
+      <number:text>)</number:text>
+      <style:map style:condition="value()&gt;=0" style:apply-style-name="N135P0"/>
+    </number:number-style>
+    <number:date-style style:name="N136">
+      <number:day/>
+      <number:text>/</number:text>
+      <number:month/>
+      <number:text>/</number:text>
+      <number:year number:style="long"/>
+    </number:date-style>
+    <number:number-style style:name="N107">
       <number:scientific-number number:decimal-places="1" number:min-decimal-places="1" number:min-integer-digits="1" number:min-exponent-digits="1" number:exponent-interval="3" number:forced-exponent-sign="true"/>
     </number:number-style>
-    <number:time-style style:name="N128">
+    <number:date-style style:name="N137">
+      <number:day/>
+      <number:text>/</number:text>
+      <number:month number:textual="true"/>
+      <number:text>/</number:text>
+      <number:year/>
+    </number:date-style>
+    <number:time-style style:name="N108">
       <number:minutes number:style="long"/>
       <number:text>:</number:text>
       <number:seconds number:style="long" number:decimal-places="1"/>
     </number:time-style>
-    <number:time-style style:name="N127" number:truncate-on-overflow="false">
+    <number:number-style style:name="N134P0" style:volatile="true">
+      <number:text>R$ </number:text>
+      <number:number number:decimal-places="2" number:min-decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
+      <number:text> </number:text>
+    </number:number-style>
+    <number:number-style style:name="N134">
+      <number:text>(R$ </number:text>
+      <number:number number:decimal-places="2" number:min-decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
+      <number:text>)</number:text>
+      <style:map style:condition="value()&gt;=0" style:apply-style-name="N134P0"/>
+    </number:number-style>
+    <number:date-style style:name="N138">
+      <number:day/>
+      <number:text>/</number:text>
+      <number:month number:textual="true"/>
+    </number:date-style>
+    <number:time-style style:name="N109" number:truncate-on-overflow="false">
       <number:hours/>
       <number:text>:</number:text>
       <number:minutes number:style="long"/>
       <number:text>:</number:text>
       <number:seconds number:style="long"/>
     </number:time-style>
-    <number:time-style style:name="N126">
+    <number:number-style style:name="N122P0" style:volatile="true">
+      <number:text> R$ </number:text>
+      <number:fill-character> </number:fill-character>
+      <number:number number:decimal-places="0" number:min-decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
+      <number:text> </number:text>
+    </number:number-style>
+    <number:number-style style:name="N122P1" style:volatile="true">
+      <number:text> R$ </number:text>
+      <number:fill-character> </number:fill-character>
+      <number:text>(</number:text>
+      <number:number number:decimal-places="0" number:min-decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
+      <number:text>)</number:text>
+    </number:number-style>
+    <number:number-style style:name="N122P2" style:volatile="true">
+      <number:text> R$ </number:text>
+      <number:fill-character> </number:fill-character>
+      <number:text>- </number:text>
+    </number:number-style>
+    <number:text-style style:name="N122">
+      <number:text> </number:text>
+      <number:text-content/>
+      <number:text> </number:text>
+      <style:map style:condition="value()&gt;0" style:apply-style-name="N122P0"/>
+      <style:map style:condition="value()&lt;0" style:apply-style-name="N122P1"/>
+      <style:map style:condition="value()=0" style:apply-style-name="N122P2"/>
+    </number:text-style>
+    <number:date-style style:name="N139">
+      <number:month number:textual="true"/>
+      <number:text>/</number:text>
+      <number:year/>
+    </number:date-style>
+    <number:time-style style:name="N110">
       <number:minutes number:style="long"/>
       <number:text>:</number:text>
       <number:seconds number:style="long"/>
     </number:time-style>
-    <number:number-style style:name="N125P0" style:volatile="true">
+    <number:number-style style:name="N114P0" style:volatile="true">
       <number:text> R$ </number:text>
       <number:fill-character> </number:fill-character>
       <number:number number:decimal-places="2" number:min-decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
       <number:text> </number:text>
     </number:number-style>
-    <number:number-style style:name="N125P1" style:volatile="true">
+    <number:number-style style:name="N114P1" style:volatile="true">
       <number:text> R$ </number:text>
       <number:fill-character> </number:fill-character>
       <number:text>(</number:text>
       <number:number number:decimal-places="2" number:min-decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
       <number:text>)</number:text>
     </number:number-style>
-    <number:number-style style:name="N125P2" style:volatile="true">
+    <number:number-style style:name="N114P2" style:volatile="true">
       <number:text> R$ </number:text>
       <number:fill-character> </number:fill-character>
       <number:text>-</number:text>
       <number:number number:decimal-places="0" number:min-decimal-places="0" number:min-integer-digits="0"/>
       <number:text> </number:text>
     </number:number-style>
-    <number:text-style style:name="N125">
+    <number:text-style style:name="N114">
       <number:text> </number:text>
       <number:text-content/>
       <number:text> </number:text>
-      <style:map style:condition="value()&gt;0" style:apply-style-name="N125P0"/>
-      <style:map style:condition="value()&lt;0" style:apply-style-name="N125P1"/>
-      <style:map style:condition="value()=0" style:apply-style-name="N125P2"/>
+      <style:map style:condition="value()&gt;0" style:apply-style-name="N114P0"/>
+      <style:map style:condition="value()&lt;0" style:apply-style-name="N114P1"/>
+      <style:map style:condition="value()=0" style:apply-style-name="N114P2"/>
     </number:text-style>
-    <number:number-style style:name="N124P0" style:volatile="true">
+    <number:number-style style:name="N118P0" style:volatile="true">
       <number:text> </number:text>
       <number:fill-character> </number:fill-character>
       <number:number number:decimal-places="2" number:min-decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
       <number:text> </number:text>
     </number:number-style>
-    <number:number-style style:name="N124P1" style:volatile="true">
+    <number:number-style style:name="N118P1" style:volatile="true">
       <number:text> </number:text>
       <number:fill-character> </number:fill-character>
       <number:text>(</number:text>
       <number:number number:decimal-places="2" number:min-decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
       <number:text>)</number:text>
     </number:number-style>
-    <number:number-style style:name="N124P2" style:volatile="true">
+    <number:number-style style:name="N118P2" style:volatile="true">
       <number:text> </number:text>
       <number:fill-character> </number:fill-character>
       <number:text>-</number:text>
       <number:number number:decimal-places="0" number:min-decimal-places="0" number:min-integer-digits="0"/>
       <number:text> </number:text>
     </number:number-style>
-    <number:text-style style:name="N124">
+    <number:text-style style:name="N118">
       <number:text> </number:text>
       <number:text-content/>
       <number:text> </number:text>
-      <style:map style:condition="value()&gt;0" style:apply-style-name="N124P0"/>
-      <style:map style:condition="value()&lt;0" style:apply-style-name="N124P1"/>
-      <style:map style:condition="value()=0" style:apply-style-name="N124P2"/>
+      <style:map style:condition="value()&gt;0" style:apply-style-name="N118P0"/>
+      <style:map style:condition="value()&lt;0" style:apply-style-name="N118P1"/>
+      <style:map style:condition="value()=0" style:apply-style-name="N118P2"/>
     </number:text-style>
-    <number:number-style style:name="N123P0" style:volatile="true">
-      <number:text> R$ </number:text>
+    <number:number-style style:name="N131P0" style:volatile="true">
+      <number:text>R$ </number:text>
+      <number:number number:decimal-places="0" number:min-decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
+      <number:text> </number:text>
+    </number:number-style>
+    <number:number-style style:name="N131">
+      <number:text>(R$ </number:text>
+      <number:number number:decimal-places="0" number:min-decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
+      <number:text>)</number:text>
+      <style:map style:condition="value()&gt;=0" style:apply-style-name="N131P0"/>
+    </number:number-style>
+    <number:number-style style:name="N126P0" style:volatile="true">
+      <number:text> </number:text>
       <number:fill-character> </number:fill-character>
       <number:number number:decimal-places="0" number:min-decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
       <number:text> </number:text>
     </number:number-style>
-    <number:number-style style:name="N123P1" style:volatile="true">
-      <number:text> R$ </number:text>
+    <number:number-style style:name="N126P1" style:volatile="true">
+      <number:text> </number:text>
       <number:fill-character> </number:fill-character>
       <number:text>(</number:text>
       <number:number number:decimal-places="0" number:min-decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
       <number:text>)</number:text>
     </number:number-style>
-    <number:number-style style:name="N123P2" style:volatile="true">
-      <number:text> R$ </number:text>
+    <number:number-style style:name="N126P2" style:volatile="true">
+      <number:text> </number:text>
       <number:fill-character> </number:fill-character>
       <number:text>- </number:text>
     </number:number-style>
-    <number:text-style style:name="N123">
+    <number:text-style style:name="N126">
       <number:text> </number:text>
       <number:text-content/>
       <number:text> </number:text>
-      <style:map style:condition="value()&gt;0" style:apply-style-name="N123P0"/>
-      <style:map style:condition="value()&lt;0" style:apply-style-name="N123P1"/>
-      <style:map style:condition="value()=0" style:apply-style-name="N123P2"/>
+      <style:map style:condition="value()&gt;0" style:apply-style-name="N126P0"/>
+      <style:map style:condition="value()&lt;0" style:apply-style-name="N126P1"/>
+      <style:map style:condition="value()=0" style:apply-style-name="N126P2"/>
     </number:text-style>
-    <number:number-style style:name="N122P0" style:volatile="true">
-      <number:text> </number:text>
-      <number:fill-character> </number:fill-character>
-      <number:number number:decimal-places="0" number:min-decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
-      <number:text> </number:text>
-    </number:number-style>
-    <number:number-style style:name="N122P1" style:volatile="true">
-      <number:text> </number:text>
-      <number:fill-character> </number:fill-character>
-      <number:text>(</number:text>
-      <number:number number:decimal-places="0" number:min-decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
-      <number:text>)</number:text>
-    </number:number-style>
-    <number:number-style style:name="N122P2" style:volatile="true">
-      <number:text> </number:text>
-      <number:fill-character> </number:fill-character>
-      <number:text>- </number:text>
-    </number:number-style>
-    <number:text-style style:name="N122">
-      <number:text> </number:text>
-      <number:text-content/>
-      <number:text> </number:text>
-      <style:map style:condition="value()&gt;0" style:apply-style-name="N122P0"/>
-      <style:map style:condition="value()&lt;0" style:apply-style-name="N122P1"/>
-      <style:map style:condition="value()=0" style:apply-style-name="N122P2"/>
-    </number:text-style>
-    <number:number-style style:name="N121P0" style:volatile="true">
+    <number:number-style style:name="N128P0" style:volatile="true">
       <number:number number:decimal-places="2" number:min-decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
       <number:text> </number:text>
     </number:number-style>
-    <number:number-style style:name="N121">
+    <number:number-style style:name="N128">
       <style:text-properties fo:color="#ff0000"/>
       <number:text>(</number:text>
       <number:number number:decimal-places="2" number:min-decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
       <number:text>)</number:text>
-      <style:map style:condition="value()&gt;=0" style:apply-style-name="N121P0"/>
-    </number:number-style>
-    <number:number-style style:name="N120P0" style:volatile="true">
+      <style:map style:condition="value()&gt;=0" style:apply-style-name="N128P0"/>
+    </number:number-style>
+    <number:number-style style:name="N129P0" style:volatile="true">
       <number:number number:decimal-places="2" number:min-decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
       <number:text> </number:text>
     </number:number-style>
-    <number:number-style style:name="N120">
+    <number:number-style style:name="N129">
       <number:text>(</number:text>
       <number:number number:decimal-places="2" number:min-decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
       <number:text>)</number:text>
-      <style:map style:condition="value()&gt;=0" style:apply-style-name="N120P0"/>
-    </number:number-style>
-    <number:number-style style:name="N107P0" style:volatile="true">
+      <style:map style:condition="value()&gt;=0" style:apply-style-name="N129P0"/>
+    </number:number-style>
+    <number:number-style style:name="N132P0" style:volatile="true">
       <number:text>R$ </number:text>
       <number:number number:decimal-places="0" number:min-decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
       <number:text> </number:text>
     </number:number-style>
-    <number:number-style style:name="N107">
-      <number:text>(R$ </number:text>
-      <number:number number:decimal-places="0" number:min-decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
-      <number:text>)</number:text>
-      <style:map style:condition="value()&gt;=0" style:apply-style-name="N107P0"/>
-    </number:number-style>
-    <number:number-style style:name="N108P0" style:volatile="true">
-      <number:text>R$ </number:text>
-      <number:number number:decimal-places="0" number:min-decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
-      <number:text> </number:text>
-    </number:number-style>
-    <number:number-style style:name="N108">
+    <number:number-style style:name="N132">
       <style:text-properties fo:color="#ff0000"/>
       <number:text>(R$ </number:text>
       <number:number number:decimal-places="0" number:min-decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
       <number:text>)</number:text>
-      <style:map style:condition="value()&gt;=0" style:apply-style-name="N108P0"/>
-    </number:number-style>
-    <number:number-style style:name="N109P0" style:volatile="true">
-      <number:text>R$ </number:text>
-      <number:number number:decimal-places="2" number:min-decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
-      <number:text> </number:text>
-    </number:number-style>
-    <number:number-style style:name="N109">
-      <number:text>(R$ </number:text>
-      <number:number number:decimal-places="2" number:min-decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
-      <number:text>)</number:text>
-      <style:map style:condition="value()&gt;=0" style:apply-style-name="N109P0"/>
-    </number:number-style>
-    <number:number-style style:name="N110P0" style:volatile="true">
-      <number:text>R$ </number:text>
-      <number:number number:decimal-places="2" number:min-decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
-      <number:text> </number:text>
-    </number:number-style>
-    <number:number-style style:name="N110">
-      <style:text-properties fo:color="#ff0000"/>
-      <number:text>(R$ </number:text>
-      <number:number number:decimal-places="2" number:min-decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
-      <number:text>)</number:text>
-      <style:map style:condition="value()&gt;=0" style:apply-style-name="N110P0"/>
-    </number:number-style>
-    <number:date-style style:name="N111">
-      <number:day/>
-      <number:text>/</number:text>
-      <number:month/>
-      <number:text>/</number:text>
-      <number:year number:style="long"/>
-    </number:date-style>
-    <number:date-style style:name="N112">
-      <number:day/>
-      <number:text>/</number:text>
-      <number:month number:textual="true"/>
-      <number:text>/</number:text>
-      <number:year/>
-    </number:date-style>
-    <number:date-style style:name="N113">
-      <number:day/>
-      <number:text>/</number:text>
-      <number:month number:textual="true"/>
-    </number:date-style>
-    <number:date-style style:name="N114">
-      <number:month number:textual="true"/>
-      <number:text>/</number:text>
-      <number:year/>
-    </number:date-style>
-    <number:time-style style:name="N115">
-      <number:hours/>
-      <number:text>:</number:text>
-      <number:minutes number:style="long"/>
-      <number:text> </number:text>
-      <number:am-pm/>
-    </number:time-style>
-    <number:time-style style:name="N116">
-      <number:hours/>
-      <number:text>:</number:text>
-      <number:minutes number:style="long"/>
-      <number:text>:</number:text>
-      <number:seconds number:style="long"/>
-      <number:text> </number:text>
-      <number:am-pm/>
-    </number:time-style>
-    <number:date-style style:name="N117">
-      <number:day/>
-      <number:text>/</number:text>
-      <number:month/>
-      <number:text>/</number:text>
-      <number:year number:style="long"/>
-      <number:text> </number:text>
-      <number:hours number:style="long"/>
-      <number:text>:</number:text>
-      <number:minutes number:style="long"/>
-    </number:date-style>
-    <number:number-style style:name="N118P0" style:volatile="true">
-      <number:number number:decimal-places="0" number:min-decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
-      <number:text> </number:text>
-    </number:number-style>
-    <number:number-style style:name="N118">
-      <number:text>(</number:text>
-      <number:number number:decimal-places="0" number:min-decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
-      <number:text>)</number:text>
-      <style:map style:condition="value()&gt;=0" style:apply-style-name="N118P0"/>
-    </number:number-style>
-    <number:number-style style:name="N119P0" style:volatile="true">
-      <number:number number:decimal-places="0" number:min-decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
-      <number:text> </number:text>
-    </number:number-style>
-    <number:number-style style:name="N119">
-      <style:text-properties fo:color="#ff0000"/>
-      <number:text>(</number:text>
-      <number:number number:decimal-places="0" number:min-decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
-      <number:text>)</number:text>
-      <style:map style:condition="value()&gt;=0" style:apply-style-name="N119P0"/>
+      <style:map style:condition="value()&gt;=0" style:apply-style-name="N132P0"/>
     </number:number-style>
     <style:style style:name="Default" style:family="table-cell"/>
     <style:style style:name="Heading" style:family="table-cell" style:parent-style-name="Default">
